--- a/公司/时间捕手数值.xlsx
+++ b/公司/时间捕手数值.xlsx
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引导阶段 时间目标秒数范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引导阶段 需操作准确次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +309,10 @@
   </si>
   <si>
     <t>每人每日 观看激励广告获取慧眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导阶段 时间目标秒数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -720,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1">
@@ -728,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1">
@@ -736,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1">
@@ -744,23 +744,20 @@
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -773,7 +770,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -784,7 +781,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -825,7 +822,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -836,7 +833,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <f>C17*$C$14</f>
@@ -853,7 +850,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -861,7 +858,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -869,7 +866,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <f>B21*$C$14</f>
@@ -878,7 +875,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <f>B22*$C$14</f>
@@ -903,7 +900,7 @@
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="4">
         <v>2.2000000000000002</v>
@@ -928,7 +925,7 @@
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4">
         <v>2</v>
@@ -945,18 +942,18 @@
     </row>
     <row r="35" spans="1:2" s="2" customFormat="1">
       <c r="A35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="2" customFormat="1">
       <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="2" customFormat="1">
@@ -969,31 +966,31 @@
     </row>
     <row r="38" spans="1:2" s="2" customFormat="1">
       <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="2" customFormat="1">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="2" customFormat="1">
       <c r="A40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="2" customFormat="1">
       <c r="A41" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>13</v>
@@ -1012,22 +1009,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="2" customFormat="1">
       <c r="A44" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="2" customFormat="1"/>
     <row r="46" spans="1:2" s="2" customFormat="1"/>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <f>60*10</f>
@@ -1036,7 +1033,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -1044,7 +1041,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49">
         <f>B48</f>
@@ -1053,7 +1050,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50">
         <v>30</v>
@@ -1061,12 +1058,12 @@
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1">
       <c r="A52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <f>B47</f>
@@ -1075,17 +1072,17 @@
     </row>
     <row r="54" spans="1:2" s="2" customFormat="1">
       <c r="A54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="2" customFormat="1">
       <c r="A55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="2" customFormat="1">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="6">
         <v>0.03</v>
@@ -1093,7 +1090,7 @@
     </row>
     <row r="57" spans="1:2" s="2" customFormat="1">
       <c r="A57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="3">
         <v>10</v>
@@ -1101,7 +1098,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="3">
         <v>10</v>
@@ -1109,17 +1106,17 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="6">
         <v>0.03</v>
@@ -1127,7 +1124,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>80</v>
@@ -1135,7 +1132,7 @@
     </row>
     <row r="65" spans="1:2" s="2" customFormat="1">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>80</v>
@@ -1147,7 +1144,7 @@
     </row>
     <row r="67" spans="1:2" s="2" customFormat="1">
       <c r="A67" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -1155,30 +1152,30 @@
     </row>
     <row r="68" spans="1:2" s="3" customFormat="1">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
